--- a/3. Bears_and_Bugs.jar_Metrics/Bugs_jar_Basic_51_Avg.xlsx
+++ b/3. Bears_and_Bugs.jar_Metrics/Bugs_jar_Basic_51_Avg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UROS\Desktop\VM Shared Folder\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UROS\Documents\GitHub\APR-PQA\3. Bears_and_Bugs.jar_Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -578,24 +578,9 @@
     <t>NbMethodsCallingMe</t>
   </si>
   <si>
-    <t>Arja-Bugs .jar-Commons-Math-69273dca_3_Fixed</t>
-  </si>
-  <si>
-    <t>GenProg-Bugs .jar-Commons-Math-8e5867ed_1_Fixed</t>
-  </si>
-  <si>
-    <t>GenProg-Bugs .jar-Commons-Math-596ccd59_1_Repaired</t>
-  </si>
-  <si>
     <t>RSRepair-Bugs .jar-Commons-Math-596ccd59_0_Buggy</t>
   </si>
   <si>
-    <t>GenProg-Bugs .jar-Commons-Math-596ccd59_4_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bugs .jar-Commons-Math-596ccd59_3_Repaired</t>
-  </si>
-  <si>
     <t>Arja-Bugs .jar-Commons-Math-596ccd59_2_Buggy</t>
   </si>
   <si>
@@ -605,15 +590,9 @@
     <t>Arja-Bugs .jar-Commons-Math-596ccd59_1_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bugs .jar-Commons-Math-596ccd59_1_Fixed</t>
-  </si>
-  <si>
     <t>GenProg-Bugs .jar-Commons-Math-8e5867ed_2_Buggy</t>
   </si>
   <si>
-    <t>GenProg-Bugs .jar-Commons-Math-69273dca_1_Repaired</t>
-  </si>
-  <si>
     <t>Kali-Bugs .jar-Jackrabbit-Oak-ffa818f3_0_Buggy</t>
   </si>
   <si>
@@ -629,414 +608,129 @@
     <t>GenProg-Bugs .jar-Commons-Math-8e5867ed_0_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bugs .jar-Commons-Math-69273dca_0_Fixed</t>
-  </si>
-  <si>
-    <t>RSRepair-Bugs .jar-Commons-Math-a06a1584_3_Fixed</t>
-  </si>
-  <si>
-    <t>GenProg-Bugs .jar-Commons-Math-a06a1584_3_Fixed</t>
-  </si>
-  <si>
-    <t>Arja-Bugs .jar-Commons-Math-2123f780_3_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bugs .jar-Commons-Math-69273dca_1_Repaired</t>
-  </si>
-  <si>
     <t>Arja-Bugs .jar-Commons-Math-2123f780_3_Buggy</t>
   </si>
   <si>
     <t>RSRepair-Bugs .jar-Commons-Math-69273dca_1_Buggy</t>
   </si>
   <si>
-    <t>DynaMoth-Bugs .jar-Commons-Math-0d057fc6_0_Fixed</t>
-  </si>
-  <si>
-    <t>RSRepair-Bugs .jar-Commons-Math-596ccd59_4_Fixed</t>
-  </si>
-  <si>
-    <t>RSRepair-Bugs .jar-Commons-Math-596ccd59_2_Fixed</t>
-  </si>
-  <si>
     <t>GenProg-Bugs .jar-Commons-Math-596ccd59_2_Buggy</t>
   </si>
   <si>
-    <t>GenProg-Bugs .jar-Commons-Math-596ccd59_2_Fixed</t>
-  </si>
-  <si>
-    <t>RSRepair-Bugs .jar-Commons-Math-596ccd59_2_Repaired</t>
-  </si>
-  <si>
-    <t>GenProg-Bugs .jar-Commons-Math-596ccd59_0_Fixed</t>
-  </si>
-  <si>
-    <t>Kali-Bugs .jar-Commons-Math-a06a1584_0_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bugs .jar-Commons-Math-a06a1584_2_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bugs .jar-Commons-Math-2123f780_0_Fixed</t>
-  </si>
-  <si>
-    <t>GenProg-Bugs .jar-Commons-Math-596ccd59_3_Repaired</t>
-  </si>
-  <si>
     <t>GenProg-Bugs .jar-Commons-Math-596ccd59_4_Buggy</t>
   </si>
   <si>
-    <t>GenProg-Bugs .jar-Commons-Math-8e5867ed_0_Repaired</t>
-  </si>
-  <si>
     <t>Arja-Bugs .jar-Commons-Math-69273dca_1_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bugs .jar-Commons-Math-2123f780_4_Repaired</t>
-  </si>
-  <si>
-    <t>DynaMoth-Bugs .jar-Commons-Math-ebc61de9_0_Repaired</t>
-  </si>
-  <si>
     <t>Arja-Bugs .jar-Commons-Math-69273dca_0_Buggy</t>
   </si>
   <si>
-    <t>DynaMoth-Bugs .jar-Commons-Math-dd6cefb0_0_Fixed</t>
-  </si>
-  <si>
     <t>Nopol-Bugs .jar-Commons-Math-bfbb156d_0_Buggy</t>
   </si>
   <si>
     <t>GenProg-Bugs .jar-Commons-Math-596ccd59_3_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bugs .jar-Commons-Math-69273dca_3_Repaired</t>
-  </si>
-  <si>
-    <t>Kali-Bugs .jar-Commons-Math-596ccd59_0_Fixed</t>
-  </si>
-  <si>
-    <t>Arja-Bugs .jar-Commons-Math-e2dc384d_1_Fixed</t>
-  </si>
-  <si>
-    <t>GenProg-Bugs .jar-Commons-Math-69273dca_1_Fixed</t>
-  </si>
-  <si>
     <t>Arja-Bugs .jar-Commons-Math-596ccd59_4_Buggy</t>
   </si>
   <si>
     <t>GenProg-Bugs .jar-Commons-Math-8e5867ed_3_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bugs .jar-Commons-Math-596ccd59_2_Fixed</t>
-  </si>
-  <si>
-    <t>GenProg-Bugs .jar-Commons-Math-596ccd59_1_Fixed</t>
-  </si>
-  <si>
-    <t>Nopol-Bugs .jar-Commons-Math-bfbb156d_0_Repaired</t>
-  </si>
-  <si>
-    <t>GenProg-Bugs .jar-Commons-Math-8e5867ed_1_Repaired</t>
-  </si>
-  <si>
-    <t>RSRepair-Bugs .jar-Commons-Math-596ccd59_1_Fixed</t>
-  </si>
-  <si>
-    <t>Arja-Bugs .jar-Commons-Math-596ccd59_4_Fixed</t>
-  </si>
-  <si>
     <t>Arja-Bugs .jar-Commons-Math-a06a1584_2_Buggy</t>
   </si>
   <si>
     <t>GenProg-Bugs .jar-Commons-Math-8e5867ed_1_Buggy</t>
   </si>
   <si>
-    <t>GenProg-Bugs .jar-Commons-Math-8e5867ed_2_Fixed</t>
-  </si>
-  <si>
-    <t>Arja-Bugs .jar-Commons-Math-69273dca_0_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bugs .jar-Commons-Math-69273dca_2_Fixed</t>
-  </si>
-  <si>
-    <t>GenProg-Bugs .jar-Commons-Math-9e0c5ad4_1_Fixed</t>
-  </si>
-  <si>
     <t>Arja-Bugs .jar-Commons-Math-e2dc384d_4_Buggy</t>
   </si>
   <si>
     <t>Arja-Bugs .jar-Commons-Math-2123f780_2_Buggy</t>
   </si>
   <si>
-    <t>DynaMoth-Bugs .jar-Commons-Math-b01fcc31_0_Repaired</t>
-  </si>
-  <si>
-    <t>Kali-Bugs .jar-Jackrabbit-Oak-ffa818f3_0_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bugs .jar-Commons-Math-69273dca_1_Fixed</t>
-  </si>
-  <si>
-    <t>RSRepair-Bugs .jar-Commons-Math-69273dca_0_Fixed</t>
-  </si>
-  <si>
     <t>RSRepair-Bugs .jar-Commons-Math-a06a1584_3_Buggy</t>
   </si>
   <si>
     <t>Arja-Bugs .jar-Commons-Math-2123f780_4_Buggy</t>
   </si>
   <si>
-    <t>GenProg-Bugs .jar-Commons-Math-8e5867ed_2_Repaired</t>
-  </si>
-  <si>
-    <t>Kali-Bugs .jar-Commons-Math-a06a1584_0_Fixed</t>
-  </si>
-  <si>
     <t>DynaMoth-Bugs .jar-Commons-Math-ebc61de9_0_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bugs .jar-Commons-Math-2123f780_1_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bugs .jar-Commons-Math-69273dca_4_Fixed</t>
-  </si>
-  <si>
     <t>GenProg-Bugs .jar-Commons-Math-596ccd59_0_Buggy</t>
   </si>
   <si>
     <t>Arja-Bugs .jar-Commons-Math-a06a1584_0_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bugs .jar-Commons-Math-a06a1584_1_Fixed</t>
-  </si>
-  <si>
-    <t>RSRepair-Bugs .jar-Commons-Math-596ccd59_1_Repaired</t>
-  </si>
-  <si>
     <t>Arja-Bugs .jar-Commons-Math-69273dca_3_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bugs .jar-Commons-Math-e2dc384d_4_Repaired</t>
-  </si>
-  <si>
-    <t>DynaMoth-Bugs .jar-Commons-Math-ebc61de9_0_Fixed</t>
-  </si>
-  <si>
     <t>GenProg-Bugs .jar-Commons-Math-69273dca_1_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bugs .jar-Commons-Math-2123f780_2_Repaired</t>
-  </si>
-  <si>
-    <t>Kali-Bugs .jar-Commons-Math-596ccd59_0_Repaired</t>
-  </si>
-  <si>
-    <t>RSRepair-Bugs .jar-Commons-Math-596ccd59_4_Repaired</t>
-  </si>
-  <si>
-    <t>RSRepair-Bugs .jar-Commons-Math-69273dca_0_Repaired</t>
-  </si>
-  <si>
-    <t>DynaMoth-Bugs .jar-Commons-Math-49444ee6_0_Fixed</t>
-  </si>
-  <si>
     <t>GenProg-Bugs .jar-Commons-Math-9e0c5ad4_1_Buggy</t>
   </si>
   <si>
     <t>RSRepair-Bugs .jar-Commons-Math-596ccd59_2_Buggy</t>
   </si>
   <si>
-    <t>RSRepair-Bugs .jar-Commons-Math-596ccd59_3_Repaired</t>
-  </si>
-  <si>
     <t>GenProg-Bugs .jar-Commons-Math-596ccd59_1_Buggy</t>
   </si>
   <si>
     <t>Kali-Bugs .jar-Commons-Math-a06a1584_0_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bugs .jar-Commons-Math-2123f780_4_Fixed</t>
-  </si>
-  <si>
     <t>RSRepair-Bugs .jar-Commons-Math-596ccd59_3_Buggy</t>
   </si>
   <si>
     <t>Arja-Bugs .jar-Commons-Math-69273dca_4_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bugs .jar-Commons-Math-e2dc384d_1_Repaired</t>
-  </si>
-  <si>
     <t>GenProg-Bugs .jar-Commons-Math-a06a1584_3_Buggy</t>
   </si>
   <si>
     <t>RSRepair-Bugs .jar-Commons-Math-596ccd59_1_Buggy</t>
   </si>
   <si>
-    <t>RSRepair-Bugs .jar-Commons-Math-a06a1584_3_Repaired</t>
-  </si>
-  <si>
-    <t>GenProg-Bugs .jar-Commons-Math-596ccd59_2_Repaired</t>
-  </si>
-  <si>
-    <t>GenProg-Bugs .jar-Commons-Math-596ccd59_3_Fixed</t>
-  </si>
-  <si>
-    <t>Arja-Bugs .jar-Commons-Math-e2dc384d_4_Fixed</t>
-  </si>
-  <si>
     <t>Arja-Bugs .jar-Commons-Math-596ccd59_3_Buggy</t>
   </si>
   <si>
     <t>Arja-Bugs .jar-Commons-Math-596ccd59_0_Buggy</t>
   </si>
   <si>
-    <t>DynaMoth-Bugs .jar-Commons-Math-b01fcc31_0_Fixed</t>
-  </si>
-  <si>
-    <t>Arja-Bugs .jar-Jackrabbit-Oak-ffa818f3_1_Repaired</t>
-  </si>
-  <si>
-    <t>GenProg-Bugs .jar-Commons-Math-596ccd59_0_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bugs .jar-Commons-Math-a06a1584_2_Fixed</t>
-  </si>
-  <si>
     <t>DynaMoth-Bugs .jar-Commons-Math-49444ee6_0_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bugs .jar-Commons-Math-596ccd59_0_Fixed</t>
-  </si>
-  <si>
-    <t>Arja-Bugs .jar-Commons-Math-2123f780_3_Fixed</t>
-  </si>
-  <si>
-    <t>DynaMoth-Bugs .jar-Commons-Math-49444ee6_0_Repaired</t>
-  </si>
-  <si>
     <t>Kali-Bugs .jar-Commons-Math-596ccd59_0_Buggy</t>
   </si>
   <si>
     <t>Arja-Bugs .jar-Jackrabbit-Oak-ffa818f3_1_Buggy</t>
   </si>
   <si>
-    <t>DynaMoth-Bugs .jar-Commons-Math-0d057fc6_0_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bugs .jar-Commons-Math-2123f780_0_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bugs .jar-Commons-Math-2123f780_1_Fixed</t>
-  </si>
-  <si>
     <t>GenProg-Bugs .jar-Commons-Math-8e5867ed_4_Buggy</t>
   </si>
   <si>
     <t>Arja-Bugs .jar-Commons-Math-69273dca_2_Buggy</t>
   </si>
   <si>
-    <t>Nopol-Bugs .jar-Commons-Math-bfbb156d_0_Fixed</t>
-  </si>
-  <si>
-    <t>RSRepair-Bugs .jar-Commons-Math-69273dca_1_Fixed</t>
-  </si>
-  <si>
-    <t>GenProg-Bugs .jar-Commons-Math-596ccd59_4_Fixed</t>
-  </si>
-  <si>
     <t>DynaMoth-Bugs .jar-Commons-Math-dd6cefb0_0_Buggy</t>
   </si>
   <si>
     <t>DynaMoth-Bugs .jar-Commons-Math-0d057fc6_0_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bugs .jar-Commons-Math-596ccd59_4_Repaired</t>
-  </si>
-  <si>
-    <t>RSRepair-Bugs .jar-Commons-Math-69273dca_1_Repaired</t>
-  </si>
-  <si>
-    <t>GenProg-Bugs .jar-Commons-Math-9e0c5ad4_1_Repaired</t>
-  </si>
-  <si>
-    <t>RSRepair-Bugs .jar-Commons-Math-596ccd59_0_Repaired</t>
-  </si>
-  <si>
-    <t>RSRepair-Bugs .jar-Commons-Math-596ccd59_3_Fixed</t>
-  </si>
-  <si>
-    <t>Kali-Bugs .jar-Jackrabbit-Oak-ffa818f3_0_Fixed</t>
-  </si>
-  <si>
-    <t>Arja-Bugs .jar-Commons-Math-a06a1584_1_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bugs .jar-Commons-Math-596ccd59_2_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bugs .jar-Commons-Math-69273dca_2_Repaired</t>
-  </si>
-  <si>
-    <t>GenProg-Bugs .jar-Commons-Math-8e5867ed_4_Fixed</t>
-  </si>
-  <si>
-    <t>Arja-Bugs .jar-Commons-Math-596ccd59_0_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bugs .jar-Commons-Math-69273dca_4_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bugs .jar-Jackrabbit-Oak-ffa818f3_1_Fixed</t>
-  </si>
-  <si>
-    <t>Arja-Bugs .jar-Commons-Math-a06a1584_0_Repaired</t>
-  </si>
-  <si>
-    <t>GenProg-Bugs .jar-Commons-Math-8e5867ed_4_Repaired</t>
-  </si>
-  <si>
     <t>Arja-Bugs .jar-Commons-Math-e2dc384d_1_Buggy</t>
   </si>
   <si>
-    <t>GenProg-Bugs .jar-Commons-Math-a06a1584_3_Repaired</t>
-  </si>
-  <si>
     <t>Arja-Bugs .jar-Commons-Math-2123f780_1_Buggy</t>
   </si>
   <si>
-    <t>DynaMoth-Bugs .jar-Commons-Math-dd6cefb0_0_Repaired</t>
-  </si>
-  <si>
-    <t>GenProg-Bugs .jar-Commons-Math-8e5867ed_3_Fixed</t>
-  </si>
-  <si>
-    <t>Arja-Bugs .jar-Commons-Math-596ccd59_3_Fixed</t>
-  </si>
-  <si>
-    <t>Arja-Bugs .jar-Commons-Math-596ccd59_1_Repaired</t>
-  </si>
-  <si>
-    <t>Arja-Bugs .jar-Commons-Math-a06a1584_0_Fixed</t>
-  </si>
-  <si>
-    <t>GenProg-Bugs .jar-Commons-Math-8e5867ed_0_Fixed</t>
-  </si>
-  <si>
-    <t>Arja-Bugs .jar-Commons-Math-2123f780_2_Fixed</t>
-  </si>
-  <si>
-    <t>RSRepair-Bugs .jar-Commons-Math-596ccd59_0_Fixed</t>
-  </si>
-  <si>
     <t>Arja-Bugs .jar-Commons-Math-a06a1584_1_Buggy</t>
   </si>
   <si>
-    <t>GenProg-Bugs .jar-Commons-Math-8e5867ed_3_Repaired</t>
-  </si>
-  <si>
     <t>Sum:</t>
   </si>
   <si>
@@ -1059,6 +753,312 @@
   </si>
   <si>
     <t>153 projects</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-2123f780_0_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-2123f780_1_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-2123f780_2_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-2123f780_3_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-2123f780_4_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-596ccd59_0_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-596ccd59_1_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-596ccd59_2_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-596ccd59_3_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-596ccd59_4_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-69273dca_0_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-69273dca_1_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-69273dca_2_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-69273dca_3_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-69273dca_4_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-a06a1584_0_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-a06a1584_1_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-a06a1584_2_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-e2dc384d_1_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-e2dc384d_4_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Jackrabbit-Oak-ffa818f3_1_Auto</t>
+  </si>
+  <si>
+    <t>DynaMoth-Bugs .jar-Commons-Math-0d057fc6_0_Auto</t>
+  </si>
+  <si>
+    <t>DynaMoth-Bugs .jar-Commons-Math-49444ee6_0_Auto</t>
+  </si>
+  <si>
+    <t>DynaMoth-Bugs .jar-Commons-Math-b01fcc31_0_Auto</t>
+  </si>
+  <si>
+    <t>DynaMoth-Bugs .jar-Commons-Math-dd6cefb0_0_Auto</t>
+  </si>
+  <si>
+    <t>DynaMoth-Bugs .jar-Commons-Math-ebc61de9_0_Auto</t>
+  </si>
+  <si>
+    <t>GenProg-Bugs .jar-Commons-Math-596ccd59_0_Auto</t>
+  </si>
+  <si>
+    <t>GenProg-Bugs .jar-Commons-Math-596ccd59_1_Auto</t>
+  </si>
+  <si>
+    <t>GenProg-Bugs .jar-Commons-Math-596ccd59_2_Auto</t>
+  </si>
+  <si>
+    <t>GenProg-Bugs .jar-Commons-Math-596ccd59_3_Auto</t>
+  </si>
+  <si>
+    <t>GenProg-Bugs .jar-Commons-Math-596ccd59_4_Auto</t>
+  </si>
+  <si>
+    <t>GenProg-Bugs .jar-Commons-Math-69273dca_1_Auto</t>
+  </si>
+  <si>
+    <t>GenProg-Bugs .jar-Commons-Math-8e5867ed_0_Auto</t>
+  </si>
+  <si>
+    <t>GenProg-Bugs .jar-Commons-Math-8e5867ed_1_Auto</t>
+  </si>
+  <si>
+    <t>GenProg-Bugs .jar-Commons-Math-8e5867ed_2_Auto</t>
+  </si>
+  <si>
+    <t>GenProg-Bugs .jar-Commons-Math-8e5867ed_3_Auto</t>
+  </si>
+  <si>
+    <t>GenProg-Bugs .jar-Commons-Math-8e5867ed_4_Auto</t>
+  </si>
+  <si>
+    <t>GenProg-Bugs .jar-Commons-Math-9e0c5ad4_1_Auto</t>
+  </si>
+  <si>
+    <t>GenProg-Bugs .jar-Commons-Math-a06a1584_3_Auto</t>
+  </si>
+  <si>
+    <t>Kali-Bugs .jar-Commons-Math-596ccd59_0_Auto</t>
+  </si>
+  <si>
+    <t>Kali-Bugs .jar-Commons-Math-a06a1584_0_Auto</t>
+  </si>
+  <si>
+    <t>Kali-Bugs .jar-Jackrabbit-Oak-ffa818f3_0_Auto</t>
+  </si>
+  <si>
+    <t>Nopol-Bugs .jar-Commons-Math-bfbb156d_0_Auto</t>
+  </si>
+  <si>
+    <t>RSRepair-Bugs .jar-Commons-Math-596ccd59_0_Auto</t>
+  </si>
+  <si>
+    <t>RSRepair-Bugs .jar-Commons-Math-596ccd59_1_Auto</t>
+  </si>
+  <si>
+    <t>RSRepair-Bugs .jar-Commons-Math-596ccd59_2_Auto</t>
+  </si>
+  <si>
+    <t>RSRepair-Bugs .jar-Commons-Math-596ccd59_3_Auto</t>
+  </si>
+  <si>
+    <t>RSRepair-Bugs .jar-Commons-Math-596ccd59_4_Auto</t>
+  </si>
+  <si>
+    <t>RSRepair-Bugs .jar-Commons-Math-69273dca_0_Auto</t>
+  </si>
+  <si>
+    <t>RSRepair-Bugs .jar-Commons-Math-69273dca_1_Auto</t>
+  </si>
+  <si>
+    <t>RSRepair-Bugs .jar-Commons-Math-a06a1584_3_Auto</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-2123f780_0_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-2123f780_1_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-2123f780_2_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-2123f780_3_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-2123f780_4_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-596ccd59_0_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-596ccd59_1_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-596ccd59_2_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-596ccd59_3_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-596ccd59_4_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-69273dca_0_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-69273dca_1_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-69273dca_2_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-69273dca_3_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-69273dca_4_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-a06a1584_0_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-a06a1584_1_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-a06a1584_2_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-e2dc384d_1_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Commons-Math-e2dc384d_4_Manual</t>
+  </si>
+  <si>
+    <t>Arja-Bugs .jar-Jackrabbit-Oak-ffa818f3_1_Manual</t>
+  </si>
+  <si>
+    <t>DynaMoth-Bugs .jar-Commons-Math-0d057fc6_0_Manual</t>
+  </si>
+  <si>
+    <t>DynaMoth-Bugs .jar-Commons-Math-49444ee6_0_Manual</t>
+  </si>
+  <si>
+    <t>DynaMoth-Bugs .jar-Commons-Math-b01fcc31_0_Manual</t>
+  </si>
+  <si>
+    <t>DynaMoth-Bugs .jar-Commons-Math-dd6cefb0_0_Manual</t>
+  </si>
+  <si>
+    <t>DynaMoth-Bugs .jar-Commons-Math-ebc61de9_0_Manual</t>
+  </si>
+  <si>
+    <t>GenProg-Bugs .jar-Commons-Math-596ccd59_0_Manual</t>
+  </si>
+  <si>
+    <t>GenProg-Bugs .jar-Commons-Math-596ccd59_1_Manual</t>
+  </si>
+  <si>
+    <t>GenProg-Bugs .jar-Commons-Math-596ccd59_2_Manual</t>
+  </si>
+  <si>
+    <t>GenProg-Bugs .jar-Commons-Math-596ccd59_3_Manual</t>
+  </si>
+  <si>
+    <t>GenProg-Bugs .jar-Commons-Math-596ccd59_4_Manual</t>
+  </si>
+  <si>
+    <t>GenProg-Bugs .jar-Commons-Math-69273dca_1_Manual</t>
+  </si>
+  <si>
+    <t>GenProg-Bugs .jar-Commons-Math-8e5867ed_0_Manual</t>
+  </si>
+  <si>
+    <t>GenProg-Bugs .jar-Commons-Math-8e5867ed_1_Manual</t>
+  </si>
+  <si>
+    <t>GenProg-Bugs .jar-Commons-Math-8e5867ed_2_Manual</t>
+  </si>
+  <si>
+    <t>GenProg-Bugs .jar-Commons-Math-8e5867ed_3_Manual</t>
+  </si>
+  <si>
+    <t>GenProg-Bugs .jar-Commons-Math-8e5867ed_4_Manual</t>
+  </si>
+  <si>
+    <t>GenProg-Bugs .jar-Commons-Math-9e0c5ad4_1_Manual</t>
+  </si>
+  <si>
+    <t>GenProg-Bugs .jar-Commons-Math-a06a1584_3_Manual</t>
+  </si>
+  <si>
+    <t>Kali-Bugs .jar-Commons-Math-596ccd59_0_Manual</t>
+  </si>
+  <si>
+    <t>Kali-Bugs .jar-Commons-Math-a06a1584_0_Manual</t>
+  </si>
+  <si>
+    <t>Kali-Bugs .jar-Jackrabbit-Oak-ffa818f3_0_Manual</t>
+  </si>
+  <si>
+    <t>Nopol-Bugs .jar-Commons-Math-bfbb156d_0_Manual</t>
+  </si>
+  <si>
+    <t>RSRepair-Bugs .jar-Commons-Math-596ccd59_0_Manual</t>
+  </si>
+  <si>
+    <t>RSRepair-Bugs .jar-Commons-Math-596ccd59_1_Manual</t>
+  </si>
+  <si>
+    <t>RSRepair-Bugs .jar-Commons-Math-596ccd59_2_Manual</t>
+  </si>
+  <si>
+    <t>RSRepair-Bugs .jar-Commons-Math-596ccd59_3_Manual</t>
+  </si>
+  <si>
+    <t>RSRepair-Bugs .jar-Commons-Math-596ccd59_4_Manual</t>
+  </si>
+  <si>
+    <t>RSRepair-Bugs .jar-Commons-Math-69273dca_0_Manual</t>
+  </si>
+  <si>
+    <t>RSRepair-Bugs .jar-Commons-Math-69273dca_1_Manual</t>
+  </si>
+  <si>
+    <t>RSRepair-Bugs .jar-Commons-Math-a06a1584_3_Manual</t>
   </si>
 </sst>
 </file>
@@ -2026,8 +2026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T178"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A142" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B178" sqref="B178:I178"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="18" spans="1:20" ht="28.8" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>15</v>
@@ -2159,7 +2159,7 @@
         <v>22</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="L18"/>
       <c r="M18"/>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B19" s="8">
         <v>4.2</v>
@@ -2200,7 +2200,7 @@
         <v>1.63</v>
       </c>
       <c r="J19" s="12" t="str">
-        <f t="shared" ref="J19:J50" si="0">IF(NOT(ISERR(SEARCH("*_Buggy",$A19))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A19))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A19))), "Repaired", "")))</f>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A19))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A19))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A19))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="L19"/>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="B20" s="8">
         <v>4.26</v>
@@ -2242,8 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J20" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A20))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A20))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A20))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="L20"/>
       <c r="M20"/>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="B21" s="6">
         <v>4.2300000000000004</v>
@@ -2284,8 +2284,8 @@
         <v>0</v>
       </c>
       <c r="J21" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A21))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A21))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A21))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="L21"/>
       <c r="M21"/>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>165</v>
+        <v>72</v>
       </c>
       <c r="B22" s="6">
         <v>4.2</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A22))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A22))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A22))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="L22"/>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B23" s="8">
         <v>4.26</v>
@@ -2368,8 +2368,8 @@
         <v>0</v>
       </c>
       <c r="J23" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A23))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A23))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A23))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="L23"/>
       <c r="M23"/>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B24" s="8">
         <v>4.2300000000000004</v>
@@ -2410,8 +2410,8 @@
         <v>0</v>
       </c>
       <c r="J24" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A24))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A24))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A24))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="B25" s="8">
         <v>4.2</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A25))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A25))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A25))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="L25"/>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="26" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="B26" s="8">
         <v>4.26</v>
@@ -2494,8 +2494,8 @@
         <v>0</v>
       </c>
       <c r="J26" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A26))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A26))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A26))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="27" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B27" s="8">
         <v>4.2300000000000004</v>
@@ -2536,8 +2536,8 @@
         <v>0</v>
       </c>
       <c r="J27" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A27))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A27))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A27))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
       <c r="L27"/>
       <c r="M27"/>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B28" s="6">
         <v>4.2</v>
@@ -2578,13 +2578,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A28))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A28))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A28))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B29" s="8">
         <v>4.26</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A29))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A29))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A29))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="B30" s="6">
         <v>4.3099999999999996</v>
@@ -2644,13 +2644,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A30))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A30))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A30))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="B31" s="8">
         <v>4.2</v>
@@ -2677,13 +2677,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A31))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A31))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A31))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="B32" s="8">
         <v>4.26</v>
@@ -2710,13 +2710,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A32))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A32))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A32))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B33" s="6">
         <v>4.2300000000000004</v>
@@ -2743,13 +2743,13 @@
         <v>0</v>
       </c>
       <c r="J33" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A33))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A33))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A33))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="B34" s="6">
         <v>5.78</v>
@@ -2776,13 +2776,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A34))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A34))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A34))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B35" s="6">
         <v>6.33</v>
@@ -2809,13 +2809,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A35))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A35))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A35))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="B36" s="8">
         <v>5.72</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="J36" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A36))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A36))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A36))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B37" s="6">
         <v>5.78</v>
@@ -2875,13 +2875,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A37))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A37))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A37))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="B38" s="8">
         <v>6.33</v>
@@ -2908,13 +2908,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A38))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A38))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A38))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="B39" s="6">
         <v>5.67</v>
@@ -2941,13 +2941,13 @@
         <v>0</v>
       </c>
       <c r="J39" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A39))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A39))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A39))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B40" s="6">
         <v>5.78</v>
@@ -2974,13 +2974,13 @@
         <v>0</v>
       </c>
       <c r="J40" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A40))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A40))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A40))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="B41" s="6">
         <v>6.33</v>
@@ -3007,13 +3007,13 @@
         <v>0</v>
       </c>
       <c r="J41" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A41))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A41))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A41))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="B42" s="6">
         <v>5.78</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="J42" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A42))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A42))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A42))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="B43" s="8">
         <v>5.78</v>
@@ -3073,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="J43" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A43))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A43))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A43))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B44" s="8">
         <v>6.33</v>
@@ -3106,13 +3106,13 @@
         <v>0</v>
       </c>
       <c r="J44" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A44))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A44))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A44))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="B45" s="8">
         <v>5.72</v>
@@ -3139,13 +3139,13 @@
         <v>0</v>
       </c>
       <c r="J45" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A45))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A45))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A45))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B46" s="6">
         <v>5.78</v>
@@ -3172,13 +3172,13 @@
         <v>0</v>
       </c>
       <c r="J46" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A46))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A46))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A46))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="B47" s="8">
         <v>6.33</v>
@@ -3205,13 +3205,13 @@
         <v>0</v>
       </c>
       <c r="J47" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A47))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A47))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A47))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="B48" s="8">
         <v>5.78</v>
@@ -3238,13 +3238,13 @@
         <v>0</v>
       </c>
       <c r="J48" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A48))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A48))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A48))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B49" s="6">
         <v>24.67</v>
@@ -3271,13 +3271,13 @@
         <v>0</v>
       </c>
       <c r="J49" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A49))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A49))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A49))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="B50" s="8">
         <v>26.67</v>
@@ -3304,13 +3304,13 @@
         <v>0</v>
       </c>
       <c r="J50" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A50))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A50))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A50))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B51" s="8">
         <v>27.67</v>
@@ -3337,13 +3337,13 @@
         <v>0</v>
       </c>
       <c r="J51" s="12" t="str">
-        <f t="shared" ref="J51:J82" si="1">IF(NOT(ISERR(SEARCH("*_Buggy",$A51))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A51))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A51))), "Repaired", "")))</f>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A51))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A51))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A51))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B52" s="8">
         <v>24.67</v>
@@ -3370,13 +3370,13 @@
         <v>0</v>
       </c>
       <c r="J52" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A52))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A52))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A52))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="B53" s="6">
         <v>26.67</v>
@@ -3403,13 +3403,13 @@
         <v>0</v>
       </c>
       <c r="J53" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A53))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A53))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A53))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="B54" s="8">
         <v>27</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="J54" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A54))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A54))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A54))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="B55" s="8">
         <v>24.67</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="J55" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A55))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A55))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A55))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="B56" s="6">
         <v>26.67</v>
@@ -3502,13 +3502,13 @@
         <v>0</v>
       </c>
       <c r="J56" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A56))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A56))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A56))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="B57" s="8">
         <v>27.33</v>
@@ -3535,13 +3535,13 @@
         <v>0</v>
       </c>
       <c r="J57" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A57))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A57))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A57))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="B58" s="8">
         <v>24.67</v>
@@ -3568,13 +3568,13 @@
         <v>0</v>
       </c>
       <c r="J58" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A58))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A58))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A58))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="B59" s="6">
         <v>26.67</v>
@@ -3601,13 +3601,13 @@
         <v>0</v>
       </c>
       <c r="J59" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A59))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A59))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A59))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="B60" s="6">
         <v>27</v>
@@ -3634,13 +3634,13 @@
         <v>0</v>
       </c>
       <c r="J60" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A60))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A60))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A60))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="B61" s="8">
         <v>24.67</v>
@@ -3667,13 +3667,13 @@
         <v>0</v>
       </c>
       <c r="J61" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A61))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A61))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A61))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="B62" s="6">
         <v>26.67</v>
@@ -3700,13 +3700,13 @@
         <v>0</v>
       </c>
       <c r="J62" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A62))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A62))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A62))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="B63" s="6">
         <v>26.67</v>
@@ -3733,13 +3733,13 @@
         <v>0</v>
       </c>
       <c r="J63" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A63))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A63))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A63))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="B64" s="6">
         <v>4.3600000000000003</v>
@@ -3766,13 +3766,13 @@
         <v>0</v>
       </c>
       <c r="J64" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A64))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A64))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A64))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="B65" s="8">
         <v>4.3600000000000003</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="J65" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A65))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A65))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A65))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="B66" s="6">
         <v>4.2</v>
@@ -3832,13 +3832,13 @@
         <v>0</v>
       </c>
       <c r="J66" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A66))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A66))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A66))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="B67" s="8">
         <v>4.3600000000000003</v>
@@ -3865,13 +3865,13 @@
         <v>0</v>
       </c>
       <c r="J67" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A67))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A67))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A67))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="B68" s="8">
         <v>4.3600000000000003</v>
@@ -3898,13 +3898,13 @@
         <v>0</v>
       </c>
       <c r="J68" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A68))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A68))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A68))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="B69" s="8">
         <v>4.32</v>
@@ -3931,13 +3931,13 @@
         <v>0</v>
       </c>
       <c r="J69" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A69))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A69))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A69))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B70" s="6">
         <v>4.3600000000000003</v>
@@ -3964,13 +3964,13 @@
         <v>0</v>
       </c>
       <c r="J70" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A70))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A70))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A70))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B71" s="6">
         <v>4.3600000000000003</v>
@@ -3997,13 +3997,13 @@
         <v>0</v>
       </c>
       <c r="J71" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A71))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A71))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A71))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="B72" s="6">
         <v>4.4800000000000004</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="J72" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A72))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A72))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A72))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="B73" s="6">
         <v>20.61</v>
@@ -4063,13 +4063,13 @@
         <v>0</v>
       </c>
       <c r="J73" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A73))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A73))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A73))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="B74" s="6">
         <v>20.61</v>
@@ -4096,13 +4096,13 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="J74" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A74))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A74))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A74))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="B75" s="6">
         <v>20.67</v>
@@ -4129,13 +4129,13 @@
         <v>0</v>
       </c>
       <c r="J75" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A75))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A75))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A75))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="B76" s="6">
         <v>20.61</v>
@@ -4162,13 +4162,13 @@
         <v>0</v>
       </c>
       <c r="J76" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A76))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A76))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A76))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B77" s="6">
         <v>20.61</v>
@@ -4195,13 +4195,13 @@
         <v>0</v>
       </c>
       <c r="J77" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A77))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A77))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A77))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B78" s="6">
         <v>20.78</v>
@@ -4228,13 +4228,13 @@
         <v>0</v>
       </c>
       <c r="J78" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A78))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A78))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A78))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="B79" s="6">
         <v>2.5</v>
@@ -4261,13 +4261,13 @@
         <v>0</v>
       </c>
       <c r="J79" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A79))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A79))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A79))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B80" s="8">
         <v>2.75</v>
@@ -4294,13 +4294,13 @@
         <v>0</v>
       </c>
       <c r="J80" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A80))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A80))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A80))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B81" s="6">
         <v>2.5</v>
@@ -4327,13 +4327,13 @@
         <v>0</v>
       </c>
       <c r="J81" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A81))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A81))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A81))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="B82" s="6">
         <v>4.8600000000000003</v>
@@ -4360,13 +4360,13 @@
         <v>0</v>
       </c>
       <c r="J82" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A82))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A82))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A82))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="B83" s="6">
         <v>4.8600000000000003</v>
@@ -4393,13 +4393,13 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="J83" s="12" t="str">
-        <f t="shared" ref="J83:J114" si="2">IF(NOT(ISERR(SEARCH("*_Buggy",$A83))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A83))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A83))), "Repaired", "")))</f>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A83))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A83))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A83))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="B84" s="8">
         <v>5</v>
@@ -4426,13 +4426,13 @@
         <v>0</v>
       </c>
       <c r="J84" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A84))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A84))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A84))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="B85" s="8">
         <v>3.07</v>
@@ -4459,13 +4459,13 @@
         <v>0</v>
       </c>
       <c r="J85" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A85))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A85))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A85))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="B86" s="8">
         <v>3.07</v>
@@ -4492,13 +4492,13 @@
         <v>0.5</v>
       </c>
       <c r="J86" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A86))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A86))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A86))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="B87" s="6">
         <v>3.14</v>
@@ -4525,13 +4525,13 @@
         <v>0</v>
       </c>
       <c r="J87" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A87))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A87))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A87))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B88" s="8">
         <v>3.62</v>
@@ -4558,13 +4558,13 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="J88" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A88))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A88))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A88))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="B89" s="8">
         <v>3.59</v>
@@ -4591,13 +4591,13 @@
         <v>0</v>
       </c>
       <c r="J89" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A89))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A89))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A89))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B90" s="6">
         <v>3.65</v>
@@ -4624,13 +4624,13 @@
         <v>0</v>
       </c>
       <c r="J90" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A90))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A90))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A90))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="B91" s="8">
         <v>6.9</v>
@@ -4657,13 +4657,13 @@
         <v>0</v>
       </c>
       <c r="J91" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A91))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A91))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A91))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="B92" s="8">
         <v>6.95</v>
@@ -4690,13 +4690,13 @@
         <v>0.45</v>
       </c>
       <c r="J92" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A92))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A92))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A92))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="B93" s="8">
         <v>6.9</v>
@@ -4723,13 +4723,13 @@
         <v>0</v>
       </c>
       <c r="J93" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A93))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A93))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A93))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="B94" s="6">
         <v>10.29</v>
@@ -4756,13 +4756,13 @@
         <v>0</v>
       </c>
       <c r="J94" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A94))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A94))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A94))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="B95" s="8">
         <v>9.7100000000000009</v>
@@ -4789,13 +4789,13 @@
         <v>0</v>
       </c>
       <c r="J95" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A95))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A95))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A95))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="B96" s="8">
         <v>10.43</v>
@@ -4822,13 +4822,13 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="J96" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A96))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A96))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A96))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="B97" s="8">
         <v>5.78</v>
@@ -4855,13 +4855,13 @@
         <v>0</v>
       </c>
       <c r="J97" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A97))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A97))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A97))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="B98" s="6">
         <v>6.33</v>
@@ -4888,13 +4888,13 @@
         <v>0</v>
       </c>
       <c r="J98" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A98))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A98))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A98))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B99" s="8">
         <v>5.72</v>
@@ -4921,13 +4921,13 @@
         <v>0</v>
       </c>
       <c r="J99" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A99))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A99))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A99))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="B100" s="8">
         <v>5.78</v>
@@ -4954,13 +4954,13 @@
         <v>0</v>
       </c>
       <c r="J100" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A100))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A100))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A100))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="B101" s="8">
         <v>6.33</v>
@@ -4987,13 +4987,13 @@
         <v>0</v>
       </c>
       <c r="J101" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A101))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A101))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A101))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="B102" s="6">
         <v>5.67</v>
@@ -5020,13 +5020,13 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="J102" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A102))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A102))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A102))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B103" s="8">
         <v>5.78</v>
@@ -5053,13 +5053,13 @@
         <v>0</v>
       </c>
       <c r="J103" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A103))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A103))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A103))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="B104" s="6">
         <v>6.33</v>
@@ -5086,13 +5086,13 @@
         <v>0</v>
       </c>
       <c r="J104" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A104))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A104))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A104))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B105" s="6">
         <v>5.5</v>
@@ -5119,13 +5119,13 @@
         <v>0</v>
       </c>
       <c r="J105" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A105))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A105))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A105))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B106" s="8">
         <v>5.78</v>
@@ -5152,13 +5152,13 @@
         <v>0</v>
       </c>
       <c r="J106" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A106))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A106))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A106))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="B107" s="8">
         <v>6.33</v>
@@ -5185,13 +5185,13 @@
         <v>0</v>
       </c>
       <c r="J107" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A107))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A107))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A107))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="B108" s="6">
         <v>5.72</v>
@@ -5218,13 +5218,13 @@
         <v>0</v>
       </c>
       <c r="J108" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A108))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A108))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A108))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B109" s="8">
         <v>5.78</v>
@@ -5251,13 +5251,13 @@
         <v>0</v>
       </c>
       <c r="J109" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A109))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A109))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A109))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="B110" s="6">
         <v>6.33</v>
@@ -5284,13 +5284,13 @@
         <v>0</v>
       </c>
       <c r="J110" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A110))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A110))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A110))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="B111" s="6">
         <v>5.67</v>
@@ -5317,13 +5317,13 @@
         <v>0</v>
       </c>
       <c r="J111" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A111))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A111))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A111))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="B112" s="6">
         <v>24.67</v>
@@ -5350,13 +5350,13 @@
         <v>0</v>
       </c>
       <c r="J112" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A112))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A112))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A112))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="B113" s="8">
         <v>26.67</v>
@@ -5383,13 +5383,13 @@
         <v>0</v>
       </c>
       <c r="J113" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A113))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A113))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A113))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="B114" s="8">
         <v>26.33</v>
@@ -5416,13 +5416,13 @@
         <v>0</v>
       </c>
       <c r="J114" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A114))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A114))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A114))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B115" s="6">
         <v>4.1399999999999997</v>
@@ -5449,13 +5449,13 @@
         <v>0</v>
       </c>
       <c r="J115" s="12" t="str">
-        <f t="shared" ref="J115:J146" si="3">IF(NOT(ISERR(SEARCH("*_Buggy",$A115))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A115))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A115))), "Repaired", "")))</f>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A115))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A115))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A115))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B116" s="6">
         <v>4.18</v>
@@ -5482,13 +5482,13 @@
         <v>0</v>
       </c>
       <c r="J116" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A116))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A116))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A116))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="B117" s="6">
         <v>4.2300000000000004</v>
@@ -5515,13 +5515,13 @@
         <v>0</v>
       </c>
       <c r="J117" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A117))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A117))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A117))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="B118" s="8">
         <v>4.1399999999999997</v>
@@ -5548,13 +5548,13 @@
         <v>0</v>
       </c>
       <c r="J118" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A118))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A118))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A118))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="B119" s="8">
         <v>4.18</v>
@@ -5581,13 +5581,13 @@
         <v>0.73</v>
       </c>
       <c r="J119" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A119))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A119))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A119))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="B120" s="8">
         <v>4.32</v>
@@ -5614,13 +5614,13 @@
         <v>0</v>
       </c>
       <c r="J120" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A120))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A120))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A120))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B121" s="6">
         <v>4.1399999999999997</v>
@@ -5647,13 +5647,13 @@
         <v>0</v>
       </c>
       <c r="J121" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A121))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A121))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A121))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="B122" s="6">
         <v>4.18</v>
@@ -5680,13 +5680,13 @@
         <v>0</v>
       </c>
       <c r="J122" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A122))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A122))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A122))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="B123" s="6">
         <v>4.18</v>
@@ -5713,13 +5713,13 @@
         <v>0</v>
       </c>
       <c r="J123" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A123))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A123))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A123))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B124" s="8">
         <v>4.1399999999999997</v>
@@ -5746,13 +5746,13 @@
         <v>0</v>
       </c>
       <c r="J124" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A124))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A124))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A124))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B125" s="6">
         <v>4.18</v>
@@ -5779,13 +5779,13 @@
         <v>0</v>
       </c>
       <c r="J125" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A125))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A125))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A125))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="B126" s="6">
         <v>4.2699999999999996</v>
@@ -5812,13 +5812,13 @@
         <v>0</v>
       </c>
       <c r="J126" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A126))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A126))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A126))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="B127" s="6">
         <v>4.1399999999999997</v>
@@ -5845,13 +5845,13 @@
         <v>0</v>
       </c>
       <c r="J127" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A127))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A127))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A127))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B128" s="6">
         <v>4.18</v>
@@ -5878,13 +5878,13 @@
         <v>0</v>
       </c>
       <c r="J128" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A128))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A128))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A128))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="B129" s="8">
         <v>4.18</v>
@@ -5911,13 +5911,13 @@
         <v>0</v>
       </c>
       <c r="J129" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A129))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A129))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A129))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="B130" s="6">
         <v>11.85</v>
@@ -5944,13 +5944,13 @@
         <v>0</v>
       </c>
       <c r="J130" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A130))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A130))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A130))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="B131" s="8">
         <v>11.85</v>
@@ -5977,13 +5977,13 @@
         <v>0.77</v>
       </c>
       <c r="J131" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A131))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A131))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A131))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="B132" s="8">
         <v>12.77</v>
@@ -6010,13 +6010,13 @@
         <v>0</v>
       </c>
       <c r="J132" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A132))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A132))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A132))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="B133" s="8">
         <v>4.3600000000000003</v>
@@ -6043,13 +6043,13 @@
         <v>0</v>
       </c>
       <c r="J133" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A133))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A133))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A133))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="B134" s="8">
         <v>4.3600000000000003</v>
@@ -6076,13 +6076,13 @@
         <v>0</v>
       </c>
       <c r="J134" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A134))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A134))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A134))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="B135" s="8">
         <v>3.96</v>
@@ -6109,13 +6109,13 @@
         <v>0</v>
       </c>
       <c r="J135" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A135))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A135))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A135))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="B136" s="8">
         <v>5.78</v>
@@ -6142,13 +6142,13 @@
         <v>0</v>
       </c>
       <c r="J136" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A136))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A136))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A136))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
-        <v>68</v>
+        <v>172</v>
       </c>
       <c r="B137" s="8">
         <v>6.33</v>
@@ -6175,13 +6175,13 @@
         <v>0</v>
       </c>
       <c r="J137" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A137))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A137))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A137))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B138" s="6">
         <v>5.89</v>
@@ -6208,13 +6208,13 @@
         <v>0</v>
       </c>
       <c r="J138" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A138))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A138))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A138))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="B139" s="6">
         <v>4.3600000000000003</v>
@@ -6241,13 +6241,13 @@
         <v>0</v>
       </c>
       <c r="J139" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A139))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A139))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A139))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="B140" s="8">
         <v>4.3600000000000003</v>
@@ -6274,13 +6274,13 @@
         <v>0</v>
       </c>
       <c r="J140" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A140))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A140))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A140))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="B141" s="8">
         <v>4.3600000000000003</v>
@@ -6307,13 +6307,13 @@
         <v>0</v>
       </c>
       <c r="J141" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A141))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A141))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A141))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B142" s="6">
         <v>2.5</v>
@@ -6340,13 +6340,13 @@
         <v>0.38</v>
       </c>
       <c r="J142" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A142))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A142))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A142))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="B143" s="6">
         <v>2.75</v>
@@ -6373,13 +6373,13 @@
         <v>0</v>
       </c>
       <c r="J143" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A143))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A143))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A143))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="B144" s="8">
         <v>2.75</v>
@@ -6406,13 +6406,13 @@
         <v>0</v>
       </c>
       <c r="J144" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A144))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A144))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A144))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B145" s="6">
         <v>8.1300000000000008</v>
@@ -6439,13 +6439,13 @@
         <v>1.24</v>
       </c>
       <c r="J145" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A145))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A145))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A145))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="B146" s="6">
         <v>7.78</v>
@@ -6472,13 +6472,13 @@
         <v>0</v>
       </c>
       <c r="J146" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A146))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A146))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A146))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="B147" s="6">
         <v>8.15</v>
@@ -6505,13 +6505,13 @@
         <v>0</v>
       </c>
       <c r="J147" s="12" t="str">
-        <f t="shared" ref="J147:J171" si="4">IF(NOT(ISERR(SEARCH("*_Buggy",$A147))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A147))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A147))), "Repaired", "")))</f>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A147))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A147))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A147))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B148" s="8">
         <v>5.78</v>
@@ -6538,13 +6538,13 @@
         <v>0</v>
       </c>
       <c r="J148" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A148))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A148))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A148))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B149" s="6">
         <v>6.33</v>
@@ -6571,13 +6571,13 @@
         <v>0</v>
       </c>
       <c r="J149" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A149))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A149))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A149))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="B150" s="6">
         <v>5.67</v>
@@ -6604,13 +6604,13 @@
         <v>0</v>
       </c>
       <c r="J150" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A150))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A150))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A150))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="B151" s="6">
         <v>5.78</v>
@@ -6637,13 +6637,13 @@
         <v>0</v>
       </c>
       <c r="J151" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A151))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A151))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A151))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="B152" s="6">
         <v>6.33</v>
@@ -6670,13 +6670,13 @@
         <v>0</v>
       </c>
       <c r="J152" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A152))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A152))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A152))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="B153" s="6">
         <v>5.83</v>
@@ -6703,13 +6703,13 @@
         <v>0</v>
       </c>
       <c r="J153" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A153))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A153))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A153))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" s="7" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="B154" s="8">
         <v>5.78</v>
@@ -6736,13 +6736,13 @@
         <v>0</v>
       </c>
       <c r="J154" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A154))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A154))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A154))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
-        <v>49</v>
+        <v>178</v>
       </c>
       <c r="B155" s="6">
         <v>6.33</v>
@@ -6769,13 +6769,13 @@
         <v>0</v>
       </c>
       <c r="J155" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A155))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A155))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A155))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" s="7" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="B156" s="8">
         <v>5.61</v>
@@ -6802,13 +6802,13 @@
         <v>0</v>
       </c>
       <c r="J156" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A156))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A156))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A156))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="B157" s="6">
         <v>5.78</v>
@@ -6835,13 +6835,13 @@
         <v>0</v>
       </c>
       <c r="J157" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A157))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A157))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A157))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" s="7" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B158" s="8">
         <v>6.33</v>
@@ -6868,13 +6868,13 @@
         <v>0</v>
       </c>
       <c r="J158" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A158))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A158))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A158))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B159" s="6">
         <v>5.72</v>
@@ -6901,13 +6901,13 @@
         <v>0</v>
       </c>
       <c r="J159" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A159))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A159))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A159))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B160" s="8">
         <v>5.78</v>
@@ -6934,13 +6934,13 @@
         <v>0</v>
       </c>
       <c r="J160" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A160))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A160))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A160))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A161" s="7" t="s">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="B161" s="8">
         <v>6.33</v>
@@ -6967,13 +6967,13 @@
         <v>0</v>
       </c>
       <c r="J161" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A161))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A161))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A161))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A162" s="7" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="B162" s="8">
         <v>5.78</v>
@@ -7000,13 +7000,13 @@
         <v>0</v>
       </c>
       <c r="J162" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A162))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A162))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A162))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B163" s="6">
         <v>24.67</v>
@@ -7033,13 +7033,13 @@
         <v>0</v>
       </c>
       <c r="J163" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A163))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A163))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A163))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A164" s="7" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="B164" s="8">
         <v>26.67</v>
@@ -7066,13 +7066,13 @@
         <v>0</v>
       </c>
       <c r="J164" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A164))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A164))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A164))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="B165" s="6">
         <v>26.33</v>
@@ -7099,13 +7099,13 @@
         <v>0</v>
       </c>
       <c r="J165" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A165))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A165))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A165))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A166" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B166" s="8">
         <v>24.67</v>
@@ -7132,13 +7132,13 @@
         <v>0</v>
       </c>
       <c r="J166" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A166))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A166))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A166))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A167" s="7" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="B167" s="8">
         <v>26.67</v>
@@ -7165,13 +7165,13 @@
         <v>0</v>
       </c>
       <c r="J167" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A167))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A167))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A167))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B168" s="6">
         <v>26.67</v>
@@ -7198,13 +7198,13 @@
         <v>0</v>
       </c>
       <c r="J168" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A168))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A168))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A168))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="B169" s="6">
         <v>4.3600000000000003</v>
@@ -7231,13 +7231,13 @@
         <v>0</v>
       </c>
       <c r="J169" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A169))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A169))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A169))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="B170" s="6">
         <v>4.3600000000000003</v>
@@ -7264,13 +7264,13 @@
         <v>0.4</v>
       </c>
       <c r="J170" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>Fixed</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A170))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A170))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A170))), "Auto", "")))</f>
+        <v>Manual</v>
       </c>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A171" s="7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B171" s="8">
         <v>4.12</v>
@@ -7297,13 +7297,13 @@
         <v>0</v>
       </c>
       <c r="J171" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>Repaired</v>
+        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A171))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A171))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A171))), "Auto", "")))</f>
+        <v>Auto</v>
       </c>
     </row>
     <row r="172" spans="1:20" ht="28.8" x14ac:dyDescent="0.35">
       <c r="A172" s="13" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="B172" s="13" t="s">
         <v>15</v>
@@ -7330,7 +7330,7 @@
         <v>22</v>
       </c>
       <c r="J172" s="13" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="L172"/>
       <c r="M172"/>
@@ -7344,228 +7344,228 @@
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A173" s="9" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="B173" s="14">
         <f>SUM(B19:B171)</f>
         <v>1401.2099999999991</v>
       </c>
       <c r="C173" s="14">
-        <f t="shared" ref="C173:I173" si="5">SUM(C19:C171)</f>
+        <f t="shared" ref="C173:I173" si="0">SUM(C19:C171)</f>
         <v>1160.2900000000022</v>
       </c>
       <c r="D173" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1350</v>
       </c>
       <c r="E173" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>2841</v>
       </c>
       <c r="F173" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>263.26000000000062</v>
       </c>
       <c r="G173" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>499.04999999999939</v>
       </c>
       <c r="H173" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>15.729999999999999</v>
       </c>
       <c r="I173" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>8.4599999999999991</v>
       </c>
       <c r="J173" s="10"/>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A174" s="11" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="B174" s="15">
         <f>AVERAGE(B19:B171)</f>
         <v>9.1582352941176417</v>
       </c>
       <c r="C174" s="15">
-        <f t="shared" ref="C174:I174" si="6">AVERAGE(C19:C171)</f>
+        <f t="shared" ref="C174:I174" si="1">AVERAGE(C19:C171)</f>
         <v>7.5835947712418443</v>
       </c>
       <c r="D174" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>8.8235294117647065</v>
       </c>
       <c r="E174" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>18.568627450980394</v>
       </c>
       <c r="F174" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1.7206535947712458</v>
       </c>
       <c r="G174" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>3.2617647058823489</v>
       </c>
       <c r="H174" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0.10281045751633985</v>
       </c>
       <c r="I174" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>5.529411764705882E-2</v>
       </c>
       <c r="J174" s="10"/>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A175" s="9" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="B175" s="14">
         <f>MIN(B19:B171)</f>
         <v>2.5</v>
       </c>
       <c r="C175" s="14">
-        <f t="shared" ref="C175:I175" si="7">MIN(C19:C171)</f>
+        <f t="shared" ref="C175:I175" si="2">MIN(C19:C171)</f>
         <v>2.57</v>
       </c>
       <c r="D175" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E175" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F175" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.34</v>
       </c>
       <c r="G175" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.59</v>
       </c>
       <c r="H175" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I175" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J175" s="10"/>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A176" s="11" t="s">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="B176" s="15">
         <f>MAX(B19:B171)</f>
         <v>27.67</v>
       </c>
       <c r="C176" s="15">
-        <f t="shared" ref="C176:I176" si="8">MAX(C19:C171)</f>
+        <f t="shared" ref="C176:I176" si="3">MAX(C19:C171)</f>
         <v>15.54</v>
       </c>
       <c r="D176" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="E176" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="F176" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G176" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>11.33</v>
       </c>
       <c r="H176" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1.83</v>
       </c>
       <c r="I176" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1.63</v>
       </c>
       <c r="J176" s="10"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" s="9" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="B177" s="14">
         <f>_xlfn.STDEV.S(B19:B171)</f>
         <v>8.0712363004657863</v>
       </c>
       <c r="C177" s="14">
-        <f t="shared" ref="C177:I177" si="9">_xlfn.STDEV.S(C19:C171)</f>
+        <f t="shared" ref="C177:I177" si="4">_xlfn.STDEV.S(C19:C171)</f>
         <v>3.8581110073759439</v>
       </c>
       <c r="D177" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>8.8243962422506659</v>
       </c>
       <c r="E177" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>10.487313580227825</v>
       </c>
       <c r="F177" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1.2212341003665774</v>
       </c>
       <c r="G177" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>3.5776657557773599</v>
       </c>
       <c r="H177" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.350635621175729</v>
       </c>
       <c r="I177" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.21904715553220325</v>
       </c>
       <c r="J177" s="10"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" s="11" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="B178" s="15">
         <f>_xlfn.VAR.S(B19:B171)</f>
         <v>65.144855417956634</v>
       </c>
       <c r="C178" s="15">
-        <f t="shared" ref="C178:I178" si="10">_xlfn.VAR.S(C19:C171)</f>
+        <f t="shared" ref="C178:I178" si="5">_xlfn.VAR.S(C19:C171)</f>
         <v>14.88502054523542</v>
       </c>
       <c r="D178" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>77.869969040247682</v>
       </c>
       <c r="E178" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>109.98374613003097</v>
       </c>
       <c r="F178" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1.4914127278981635</v>
       </c>
       <c r="G178" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>12.799692260061986</v>
       </c>
       <c r="H178" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.12294533883728932</v>
       </c>
       <c r="I178" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4.7981656346749238E-2</v>
       </c>
       <c r="J178" s="10"/>
